--- a/biology/Médecine/Foramen_incisif/Foramen_incisif.xlsx
+++ b/biology/Médecine/Foramen_incisif/Foramen_incisif.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les foramens incisifs (ou trous incisifs) sont les ouvertures osseuses situées à l'extrémité antérieure de la suture intermaxillaire dans le palais osseux.
 </t>
@@ -511,9 +523,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les foramens incisifs sont situés au fond de la fosse incisive en forme d'entonnoir située juste derrière les incisives[1] à la jonction entre le processus alvéolaire et le processus palatin du maxillaire.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les foramens incisifs sont situés au fond de la fosse incisive en forme d'entonnoir située juste derrière les incisives à la jonction entre le processus alvéolaire et le processus palatin du maxillaire.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les foramens incisifs sont les ouvertures inférieures des canaux incisifs qui permettent la communication à travers le maxillaire du toit du palais avec la cavité nasale.
 Les foramens incisifs permettent le passage des nerfs naso-palatins et de l'artère grande palatine.
@@ -574,12 +590,14 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le foramen incisif peut être utilisé pour l'injection d'anesthésique local.
-Il est également utilisé comme repère pour définir la sévérité de la fente labio-palatine qui peut s'étendre soit devant (primaire) soit derrière (secondaire) le foramen[2],[3].
+Il est également utilisé comme repère pour définir la sévérité de la fente labio-palatine qui peut s'étendre soit devant (primaire) soit derrière (secondaire) le foramen,.
 Il est également important comme repère chirurgical pour éviter d'endommager ses nerfs et ses structures vasculaires.
-Lorsque des radiographies simples du maxillaire, le foramen incisif peut être confondu avec une lésion périapicale[4].
+Lorsque des radiographies simples du maxillaire, le foramen incisif peut être confondu avec une lésion périapicale.
 </t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Anatomie comparée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez de nombreuses autres espèces, les foramens incisifs permettent le passage vers l'organe voméronasal[1]. Il peut être trouvé chez les chats[2] et les alligators[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez de nombreuses autres espèces, les foramens incisifs permettent le passage vers l'organe voméronasal. Il peut être trouvé chez les chats et les alligators.
 </t>
         </is>
       </c>
